--- a/Turma 462 - Outubro 2017/Aula 2/Aula Concatenar.xlsx
+++ b/Turma 462 - Outubro 2017/Aula 2/Aula Concatenar.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Márcio</t>
   </si>
@@ -70,44 +71,44 @@
     <t>Nomes e times por idade</t>
   </si>
   <si>
+    <t>Prado</t>
+  </si>
+  <si>
+    <t>Nome e Sobrenome</t>
+  </si>
+  <si>
+    <t>Sobrenome</t>
+  </si>
+  <si>
+    <t>Nome e time</t>
+  </si>
+  <si>
+    <t>Nome, time e idade</t>
+  </si>
+  <si>
+    <t>Vasco</t>
+  </si>
+  <si>
+    <t>Flamengo</t>
+  </si>
+  <si>
     <t>Idade</t>
-  </si>
-  <si>
-    <t>Prado</t>
-  </si>
-  <si>
-    <t>Nome e Sobrenome</t>
-  </si>
-  <si>
-    <t>Sobrenome</t>
-  </si>
-  <si>
-    <t>Nome e time</t>
-  </si>
-  <si>
-    <t>Nome, time e idade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -122,6 +123,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -156,7 +170,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -209,26 +223,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,7 +544,19 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>usando concatenar e texto fixo.</a:t>
+            <a:t>usando concatenar.*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> Idade Aleatoria entre 20 e 35.</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1200">
             <a:effectLst/>
@@ -859,258 +898,203 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:L22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9:J14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="1.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
-    <col min="7" max="7" width="1.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.140625" customWidth="1"/>
-    <col min="10" max="10" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="1.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="39.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="8" t="str">
-        <f>CONCATENATE("Nome: ",B9,"|","Time: ",$B$19,"|","Idade: ",$D$18)</f>
-        <v>Nome: Márcio|Time: São Paulo|Idade: 25</v>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="2" t="str">
+        <f>CONCATENATE("Nome: ",B9,"|","Time: ",$B$21,"|","Idade: ",$D$18)</f>
+        <v xml:space="preserve">Nome: Márcio|Time: São Paulo|Idade: </v>
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
     </row>
     <row r="3" spans="2:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="J8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="9" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="5" t="str">
-        <f>CONCATENATE(B9," ",D9)</f>
-        <v>Márcio Almeida</v>
-      </c>
-      <c r="H9" s="5" t="str">
-        <f>F9&amp;"-"&amp;$B$17</f>
-        <v>Márcio Almeida-Corinthians</v>
-      </c>
-      <c r="J9" s="5" t="str">
-        <f>CONCATENATE(B9," ",B17," ",D17)</f>
-        <v>Márcio Corinthians 20</v>
-      </c>
+      <c r="F9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="5" t="str">
-        <f>B10&amp;" "&amp;D10</f>
-        <v>Jorge Silva</v>
-      </c>
-      <c r="H10" s="5" t="str">
-        <f t="shared" ref="H10:H14" si="0">F10&amp;"-"&amp;$B$17</f>
-        <v>Jorge Silva-Corinthians</v>
-      </c>
-      <c r="J10" s="5" t="str">
-        <f t="shared" ref="J10:J14" si="1">CONCATENATE(B10," ",B18," ",D18)</f>
-        <v>Jorge Santos 25</v>
-      </c>
+      <c r="F10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="J10" s="7"/>
     </row>
     <row r="11" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="5" t="str">
-        <f>CONCATENATE(B11," ",D11)</f>
-        <v>Ana Santos</v>
-      </c>
-      <c r="H11" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Ana Santos-Corinthians</v>
-      </c>
-      <c r="J11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Ana São Paulo 30</v>
-      </c>
+      <c r="F11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="5" t="str">
-        <f>B12&amp;" "&amp;D12</f>
-        <v>Maria Camargo</v>
-      </c>
-      <c r="H12" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Maria Camargo-Corinthians</v>
-      </c>
-      <c r="J12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Maria Palmeiras </v>
-      </c>
+      <c r="F12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="5" t="str">
-        <f t="shared" ref="F13:F14" si="2">B13&amp;" "&amp;D13</f>
-        <v>Pedro Viera</v>
-      </c>
-      <c r="H13" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Pedro Viera-Corinthians</v>
-      </c>
-      <c r="J13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Pedro  </v>
-      </c>
+      <c r="F13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>Marília Prado</v>
-      </c>
-      <c r="H14" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Marília Prado-Corinthians</v>
-      </c>
-      <c r="J14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Marília  </v>
-      </c>
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+    </row>
+    <row r="17" spans="2:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1123,4 +1107,28 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CC0A26-3C1E-429B-AC11-2CF847A0827C}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView zoomScale="350" zoomScaleNormal="350" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="str">
+        <f ca="1">CONCATENATE(A1," ",RANDBETWEEN(25,35))</f>
+        <v>Idade 33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>